--- a/Excel_Files/Stats_Populations/2.5_cm/754_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/2.5_cm/754_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0002672951846001519</v>
+        <v>0.0004967557557199681</v>
       </c>
       <c r="D2">
-        <v>0.0004001150127521999</v>
+        <v>0.000637362603095717</v>
       </c>
       <c r="E2">
-        <v>0.000308157049168331</v>
+        <v>0.000535527660516337</v>
       </c>
       <c r="F2">
-        <v>0.0003306175141367627</v>
+        <v>0.0005702147834517664</v>
       </c>
       <c r="G2">
-        <v>0.0001616480418270737</v>
+        <v>0.0003460074840846838</v>
       </c>
       <c r="H2">
-        <v>0.0004001150127521999</v>
+        <v>0.000637362603095717</v>
       </c>
       <c r="I2">
-        <v>0.0005107849578563785</v>
+        <v>0.0008399872381959789</v>
       </c>
       <c r="J2">
-        <v>0.0005999752010136195</v>
+        <v>0.0009088310589473698</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.0001058932372163474</v>
+        <v>0.0002465158384619485</v>
       </c>
       <c r="D3">
-        <v>0.0003228175437710838</v>
+        <v>0.000572523527776035</v>
       </c>
       <c r="E3">
-        <v>0.0002052539925557343</v>
+        <v>0.0004094966870790713</v>
       </c>
       <c r="F3">
-        <v>0.0001265676087382192</v>
+        <v>0.0002833967448828034</v>
       </c>
       <c r="G3">
-        <v>0.0001142849625837988</v>
+        <v>0.0002609367494759128</v>
       </c>
       <c r="H3">
-        <v>0.0002016023677808641</v>
+        <v>0.000404610882353423</v>
       </c>
       <c r="I3">
-        <v>0.0002100086234870124</v>
+        <v>0.0004239910203187927</v>
       </c>
       <c r="J3">
-        <v>9.566157473831571E-05</v>
+        <v>0.0002269694083223007</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>7.098351653314339E-05</v>
+        <v>0.0001786205801589371</v>
       </c>
       <c r="D4">
-        <v>0.0001558458734193103</v>
+        <v>0.0003248214202658024</v>
       </c>
       <c r="E4">
-        <v>0.0001279991380328288</v>
+        <v>0.000286580528149221</v>
       </c>
       <c r="F4">
-        <v>5.012245371931452E-05</v>
+        <v>0.0001342102348639406</v>
       </c>
       <c r="G4">
-        <v>4.328009144181756E-05</v>
+        <v>0.0001191977637382997</v>
       </c>
       <c r="H4">
-        <v>9.506195805590467E-05</v>
+        <v>0.0002253149772763297</v>
       </c>
       <c r="I4">
-        <v>0.0001389157154963451</v>
+        <v>0.00030747672038238</v>
       </c>
       <c r="J4">
-        <v>3.87068857189568E-05</v>
+        <v>0.0001074070132272678</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>4.27524651843594E-06</v>
+        <v>1.723546646496918E-05</v>
       </c>
       <c r="D5">
-        <v>5.281748717753311E-06</v>
+        <v>2.069797886327062E-05</v>
       </c>
       <c r="E5">
-        <v>4.404621344656114E-06</v>
+        <v>1.819178379655878E-05</v>
       </c>
       <c r="F5">
-        <v>2.213780787579539E-06</v>
+        <v>1.003549674072931E-05</v>
       </c>
       <c r="G5">
-        <v>1.538733732995766E-06</v>
+        <v>7.427415438163447E-06</v>
       </c>
       <c r="H5">
-        <v>2.795881239667703E-06</v>
+        <v>1.226662411149497E-05</v>
       </c>
       <c r="I5">
-        <v>3.703089390390418E-06</v>
+        <v>1.533165280918404E-05</v>
       </c>
       <c r="J5">
-        <v>3.467348491290589E-06</v>
+        <v>1.460978193972845E-05</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>2.568820976870232E-06</v>
+        <v>1.143454841742494E-05</v>
       </c>
       <c r="D6">
-        <v>2.465597819901073E-06</v>
+        <v>1.110405717541483E-05</v>
       </c>
       <c r="E6">
-        <v>2.089352912521083E-06</v>
+        <v>9.601461068961959E-06</v>
       </c>
       <c r="F6">
-        <v>9.728669640092452E-07</v>
+        <v>5.150942234300974E-06</v>
       </c>
       <c r="G6">
-        <v>9.015885698786236E-07</v>
+        <v>4.786745890555712E-06</v>
       </c>
       <c r="H6">
-        <v>1.232982690663538E-06</v>
+        <v>6.257727816801909E-06</v>
       </c>
       <c r="I6">
-        <v>2.510547643845136E-06</v>
+        <v>1.115684766971759E-05</v>
       </c>
       <c r="J6">
-        <v>1.531194905628662E-06</v>
+        <v>7.304334879913327E-06</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>1.263361660528464E-06</v>
+        <v>6.335496622405117E-06</v>
       </c>
       <c r="D7">
-        <v>1.238483530993777E-06</v>
+        <v>6.277063649192015E-06</v>
       </c>
       <c r="E7">
-        <v>6.320778820651951E-07</v>
+        <v>3.564171651498892E-06</v>
       </c>
       <c r="F7">
-        <v>2.166506400103344E-07</v>
+        <v>1.469491243449011E-06</v>
       </c>
       <c r="G7">
-        <v>4.295880830018793E-07</v>
+        <v>2.577383422867899E-06</v>
       </c>
       <c r="H7">
-        <v>2.166506400103344E-07</v>
+        <v>1.469491243449011E-06</v>
       </c>
       <c r="I7">
-        <v>1.380622600584794E-06</v>
+        <v>6.882676544488144E-06</v>
       </c>
       <c r="J7">
-        <v>8.153415143348355E-07</v>
+        <v>4.407240181426566E-06</v>
       </c>
     </row>
   </sheetData>
